--- a/Magistracy1Stats/Приложение 2.xlsx
+++ b/Magistracy1Stats/Приложение 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\крендель\Desktop\MagicCode\Magistracy1Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82F0987-5C86-4FFA-8EE0-961C33A24337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28DBDEE-10BF-4CB8-A0B3-D270C98FD280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="390" windowWidth="23700" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,30 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>X1</t>
-  </si>
-  <si>
-    <t>Х2</t>
   </si>
   <si>
     <t>X3</t>
   </si>
   <si>
-    <t>Х4</t>
+    <t>CLASS</t>
   </si>
   <si>
-    <t>Х5</t>
+    <t>X2</t>
   </si>
   <si>
-    <t>Х6</t>
+    <t>X4</t>
   </si>
   <si>
-    <t>Х7</t>
+    <t>X5</t>
   </si>
   <si>
-    <t>CLASS</t>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
   <dimension ref="A1:BR538"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,25 +532,25 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
